--- a/docs/85b_test_definitions_PIV_Production.xlsx
+++ b/docs/85b_test_definitions_PIV_Production.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59CDE6A0-FCD5-4437-B43E-5734280A2692}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A00063-9522-4DAB-949A-BDE62FDCDE2A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="377" yWindow="223" windowWidth="29512" windowHeight="17846" tabRatio="634" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5700" yWindow="780" windowWidth="23040" windowHeight="12120" tabRatio="634" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PIV I Reference Tests" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="786">
   <si>
     <t>Test Case</t>
   </si>
@@ -1030,108 +1030,60 @@
     <t>9.1.1</t>
   </si>
   <si>
-    <t>Validate that CBEFF structure conforms to SP800-76 Table 7</t>
-  </si>
-  <si>
     <t>76.1, 76.2, 76.3, 76.4</t>
   </si>
   <si>
     <t>9.1.2.1</t>
   </si>
   <si>
-    <t>Validate that the CBEFF field “Patron Header Version” complies with SP80076 Table 8</t>
-  </si>
-  <si>
     <t>9.1.2.2</t>
   </si>
   <si>
-    <t>Validate that the biometric data block is signed but not encrypted</t>
-  </si>
-  <si>
     <t>76.6</t>
   </si>
   <si>
     <t>9.1.2.3</t>
   </si>
   <si>
-    <t>Validate that BDB Format Owner is set to a value of 0x001B denoting M1, the INCITS Technical Committee on Biometrics.</t>
-  </si>
-  <si>
     <t>76.7</t>
   </si>
   <si>
     <t>9.1.2.4</t>
   </si>
   <si>
-    <t>Validate that for mandatory fingerprint minutiae template data stored on a PIV card, the BDB Format Type is set to a value of 0x0201</t>
-  </si>
-  <si>
     <t>9.1.2.5</t>
   </si>
   <si>
-    <t>Validate that that the creation date in the PIV Patron Format is encoded in 8 bytes using a binary representation of “YYYYMMDDhhmmssZ”</t>
-  </si>
-  <si>
     <t>9.1.2.6</t>
   </si>
   <si>
-    <t>Validate date encoding on Validity Period in PIV Patron Format</t>
-  </si>
-  <si>
-    <t>Check for two dates, format</t>
-  </si>
-  <si>
     <t>9.1.2.7</t>
   </si>
   <si>
-    <t>Valdiate that that Biometric Type has the value 0x000008</t>
-  </si>
-  <si>
     <t>9.1.2.8</t>
   </si>
   <si>
-    <t>Validate that for the mandatory minutia PIV card templates, the CBEFF biometric data type encoding value shall be b100xxxxx, which corresponds to biometric data that has been processed.</t>
-  </si>
-  <si>
     <t>9.1.2.9</t>
   </si>
   <si>
-    <t>Validate that the biometric quality field carries valid values</t>
-  </si>
-  <si>
     <t>9.1.2.10</t>
   </si>
   <si>
-    <t>Validate that that the Creator field in the PIV Patron Format contains 18 bytes of which the first K &lt;= 17 bytes shall be ASCII characters, and the first of the remaining 18-K shall be a null terminator (zero)</t>
-  </si>
-  <si>
     <t>9.1.2.11</t>
   </si>
   <si>
-    <t>Validate that FASC-N field in the PIV Patron Format contains the same 25 bytes as the FASC-N component of the CHUID identifier</t>
-  </si>
-  <si>
     <t>9.1.2.12</t>
   </si>
   <si>
-    <t>Validate that the “Reserved for Future Use” field is equal to 0x00000000</t>
-  </si>
-  <si>
     <t>9.2.1</t>
   </si>
   <si>
-    <t>Valdiate that the CBEFF structure generated complies with SP800-76 Table 7, “Simple CBEFF Structure”</t>
-  </si>
-  <si>
     <t>76.1, 76.2, 76.3, 76.8</t>
   </si>
   <si>
     <t>9.2.2.1</t>
   </si>
   <si>
-    <t>Validate the CBEFF field “Patron Header Version” complies with SP80076 Table 8, “Patron Format PIV Specification”</t>
-  </si>
-  <si>
     <t>76.5</t>
   </si>
   <si>
@@ -1144,28 +1096,16 @@
     <t>9.2.2.4</t>
   </si>
   <si>
-    <t>Validate that for optional facial image data stored on a PIV card, the BDB Format Type is set to a value of 0x0501</t>
-  </si>
-  <si>
     <t>9.2.2.5</t>
   </si>
   <si>
     <t>9.2.2.6</t>
   </si>
   <si>
-    <t>Check for two dates, formatted to match creation date</t>
-  </si>
-  <si>
     <t>9.2.2.7</t>
   </si>
   <si>
-    <t>Validate that Biometric Type has the value 0x000002</t>
-  </si>
-  <si>
     <t>9.2.2.8</t>
-  </si>
-  <si>
-    <t>Validate that the CBEFF biometric data type encoding value shall be b001xxxxx, which corresponds to the raw biometric data</t>
   </si>
   <si>
     <t>9.2.2.9</t>
@@ -2152,6 +2092,303 @@
   </si>
   <si>
     <t>Confirm that id-fpki-common-cardAuth OID is asserted in certificate policies</t>
+  </si>
+  <si>
+    <t>FASC-N</t>
+  </si>
+  <si>
+    <t>Distinguished Name</t>
+  </si>
+  <si>
+    <t>Signature Presence</t>
+  </si>
+  <si>
+    <t>Digest Algorithm</t>
+  </si>
+  <si>
+    <t>SP800_85B.10.2.1.1</t>
+  </si>
+  <si>
+    <t>SP800_85B.10.2.1.10</t>
+  </si>
+  <si>
+    <t>SP800_85B.10.2.1.11</t>
+  </si>
+  <si>
+    <t>Signature Algorithm</t>
+  </si>
+  <si>
+    <t>Digital Signature</t>
+  </si>
+  <si>
+    <t>Signer Identifier</t>
+  </si>
+  <si>
+    <t>Message Digest</t>
+  </si>
+  <si>
+    <t>entryUUID</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>encapContentInfo</t>
+  </si>
+  <si>
+    <t>Single SignerInfos</t>
+  </si>
+  <si>
+    <t>CRLs Field Omission</t>
+  </si>
+  <si>
+    <t>SP800_85B.10.2.1.2</t>
+  </si>
+  <si>
+    <t>SP800_85B.10.2.1.3</t>
+  </si>
+  <si>
+    <t>SP800_85B.10.2.1.4</t>
+  </si>
+  <si>
+    <t>SP800_85B.10.2.1.5</t>
+  </si>
+  <si>
+    <t>SP800_85B.10.2.1.6</t>
+  </si>
+  <si>
+    <t>SP800_85B.10.2.1.7</t>
+  </si>
+  <si>
+    <t>SP800_85B.10.2.1.8</t>
+  </si>
+  <si>
+    <t>SP800_85B.10.2.1.9</t>
+  </si>
+  <si>
+    <t>SP800_85B.10.2.1.12</t>
+  </si>
+  <si>
+    <t>SP800_85B.10.2.1.13</t>
+  </si>
+  <si>
+    <t>SP800_85B.10.2.1.14</t>
+  </si>
+  <si>
+    <t>Signer Digest Algorithm</t>
+  </si>
+  <si>
+    <t>MISSING</t>
+  </si>
+  <si>
+    <t>SP800_85B.10.1.1.1</t>
+  </si>
+  <si>
+    <t>SP800_85B.10.1.1.10</t>
+  </si>
+  <si>
+    <t>SP800_85B.10.1.1.11</t>
+  </si>
+  <si>
+    <t>SP800_85B.10.1.1.12</t>
+  </si>
+  <si>
+    <t>SP800_85B.10.1.1.2</t>
+  </si>
+  <si>
+    <t>SP800_85B.10.1.1.3</t>
+  </si>
+  <si>
+    <t>SP800_85B.10.1.1.4</t>
+  </si>
+  <si>
+    <t>SP800_85B.10.1.1.5</t>
+  </si>
+  <si>
+    <t>SP800_85B.10.1.1.6</t>
+  </si>
+  <si>
+    <t>SP800_85B.10.1.1.7</t>
+  </si>
+  <si>
+    <t>SP800_85B.10.1.1.8</t>
+  </si>
+  <si>
+    <t>SP800_85B.10.1.1.9</t>
+  </si>
+  <si>
+    <t>76.38</t>
+  </si>
+  <si>
+    <t>76.39</t>
+  </si>
+  <si>
+    <t>76.40</t>
+  </si>
+  <si>
+    <t>76.41</t>
+  </si>
+  <si>
+    <t>76.42</t>
+  </si>
+  <si>
+    <t>76.43</t>
+  </si>
+  <si>
+    <t>76.44</t>
+  </si>
+  <si>
+    <t>76.45</t>
+  </si>
+  <si>
+    <t>76.46</t>
+  </si>
+  <si>
+    <t>Note that this  includes meaningless  PIV-I FASC-Ns</t>
+  </si>
+  <si>
+    <t>76.48</t>
+  </si>
+  <si>
+    <t>76.49</t>
+  </si>
+  <si>
+    <t>76.50</t>
+  </si>
+  <si>
+    <t>76.52</t>
+  </si>
+  <si>
+    <t>Validate that the fingerprint CBEFF Biometric Data Quality field carries valid values</t>
+  </si>
+  <si>
+    <t>Validate that fingerprint CBEFF Biometric Data Block (BDB) Format Owner is set to a value of 0x001B denoting M1, the INCITS Technical Committee on Biometrics.</t>
+  </si>
+  <si>
+    <t>Validate that the fingerprint Biometric Data Block (BDB) is signed but not encrypted</t>
+  </si>
+  <si>
+    <t>Validate that fingerprint CBEFF structure conforms to SP800-76-2 Table 14</t>
+  </si>
+  <si>
+    <t>Validate that the fingerprint CBEFF Patron Header Version complies with SP 800-76-2 Table 14</t>
+  </si>
+  <si>
+    <t>Validate date encoding on fingerprint CBEFF Validity Period in PIV Patron Format</t>
+  </si>
+  <si>
+    <t>Validate that for mandatory fingerprint minutiae template data stored on a PIV card, the CBEFF Biometric Data Block (BDB) Format Type is set to a value of 0x0201</t>
+  </si>
+  <si>
+    <t>Validate that for the mandatory minutia PIV card templates, the CBEFF Biometric Data Type encoding value shall be b100xxxxx, which corresponds to biometric data that has been processed.</t>
+  </si>
+  <si>
+    <t>-2, 100</t>
+  </si>
+  <si>
+    <t>Validate that FASC-N field in the fingerprint CBEFF FASC-N contains the same 25 bytes as the FASC-N component of the CHUID identifier</t>
+  </si>
+  <si>
+    <t>Validate that that the fingerprint CBEFF Creator contains 18 bytes of which the first K &lt;= 17 bytes shall be ASCII characters, and the first of the remaining 18-K shall be a null terminator (zero)</t>
+  </si>
+  <si>
+    <t>Validate that the CBEFF Reserved for Future Use field is equal to 0x00000000</t>
+  </si>
+  <si>
+    <t>Verify that for the mandatory minutia PIV card templates, the CBEFF Biometric Data Type encoding value shall be b100xxxxx, which corresponds to biometric data that has been processed.</t>
+  </si>
+  <si>
+    <t>Verify that the CBEFF Reserved for Future Use field is equal to 0x00000000</t>
+  </si>
+  <si>
+    <t>Verify date encoding on facial image CBEFF Validity Period</t>
+  </si>
+  <si>
+    <t>Verify that facial image CBEFF Biometric Type has the value  0x000002 (24 bits)</t>
+  </si>
+  <si>
+    <t>Verify that the facial image CBEFF Biometric Data Quality contains valid values</t>
+  </si>
+  <si>
+    <t>Verify that that the facial image CBEFF Creation Date is encoded in 8 bytes using a binary representation of "YYYYMMDDhhmmssZ"</t>
+  </si>
+  <si>
+    <t>Validiate that that fingerprint CBEFF Biometric Type has the value 0x000008 (24 bits)</t>
+  </si>
+  <si>
+    <t>Validate that that the fingerprint CBEFF Creation Date is encoded in 8 bytes using a binary representation of "YYYYMMDDhhmmssZ"</t>
+  </si>
+  <si>
+    <t>Valdiate that the facial image CBEFF structure generated complies with SP 800-76-2 Table 13, “Simple CBEFF Structure”</t>
+  </si>
+  <si>
+    <t>Validate the facial image CBEFF Patron Header Version complies with SP 800-76-2 Table 14, “Patron Format PIV Specification”</t>
+  </si>
+  <si>
+    <t>Validate that the facial image CBEFF Biometric Data Block is signed but not encrypted</t>
+  </si>
+  <si>
+    <t>Validate that facial image CBEFF BDB Format Owner is set to a value of 0x001B denoting M1, the INCITS Technical Committee on Biometrics.</t>
+  </si>
+  <si>
+    <t>Validate that the facial image CBEFF BDB Format Type is set to a value of 0x0501</t>
+  </si>
+  <si>
+    <t>Validate that that the facial image CBEFF Creation Date is encoded in 8 bytes using a binary representation of “YYYYMMDDhhmmssZ”</t>
+  </si>
+  <si>
+    <t>Validate date encoding on facial image CBEFF Validity Period</t>
+  </si>
+  <si>
+    <t>Validate that facial image CBEFF Biometric Type has the value 0x000002</t>
+  </si>
+  <si>
+    <t>Validate that the facial image CBEFF Biometric Data Type encoding value shall be b001xxxxx, which corresponds to the raw biometric data</t>
+  </si>
+  <si>
+    <t>Validate that that the facial image CBEFF Creator contains 18 bytes of which the first K &lt;= 17 bytes shall be ASCII characters, and the first of the remaining 18-K shall be a null terminator (zero)</t>
+  </si>
+  <si>
+    <t>Validate that the facial image CBEFF Biometric Quality contains valid values</t>
+  </si>
+  <si>
+    <t>Validate that the facial image CBEFF Reserved for Future Use field is equal to 0x00000000</t>
+  </si>
+  <si>
+    <t>Validate that facial image CBEFF FASC-N field contains the same 25 bytes as the FASC-N component of the CHUID identifier</t>
+  </si>
+  <si>
+    <t>Cardholder Fingerprints==513,Cardholder Facial Image==1281</t>
+  </si>
+  <si>
+    <t>Cardholder Fingerprints==224,Cardholder Facial Image==32</t>
+  </si>
+  <si>
+    <t>Verify that the CBEFF Biometric Data Block (BDB) Format Type is set to the appropriate value</t>
+  </si>
+  <si>
+    <t>Verify that that the CBEFF Creation Date is encoded in 8 bytes using a binary representation of "YYYYMMDDhhmmssZ"</t>
+  </si>
+  <si>
+    <t>Verify date encoding of CBEFF Validity Period in PIV Patron Format</t>
+  </si>
+  <si>
+    <t>Verify that that CBEFF Biometric Type has the correct 24-bt value</t>
+  </si>
+  <si>
+    <t>Verify that the CBEFF Biometric Data Quality field carries valid values</t>
+  </si>
+  <si>
+    <t>Verify that that the CBEFF Creator contains 18 bytes of which the first K &lt;= 17 bytes shall be ASCII characters, and the first of the remaining 18-K shall be a null terminator (zero)</t>
+  </si>
+  <si>
+    <t>Verify that FASC-N field in the CBEFF FASC-N contains the same 25 bytes as the FASC-N component of the CHUID identifier</t>
+  </si>
+  <si>
+    <t>You might want to change this parameter format</t>
+  </si>
+  <si>
+    <t>Cardholder Fingerprints==8,Cardholder Facial Image==2</t>
   </si>
 </sst>
 </file>
@@ -2212,7 +2449,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2233,6 +2470,20 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2615,18 +2866,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E183"/>
+  <dimension ref="A1:E209"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G109" sqref="G109"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.2109375" customWidth="1"/>
-    <col min="2" max="2" width="57.35546875" customWidth="1"/>
+    <col min="1" max="1" width="55.375" customWidth="1"/>
+    <col min="2" max="2" width="57.375" customWidth="1"/>
     <col min="3" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2634,7 +2887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2642,7 +2895,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2650,7 +2903,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2658,7 +2911,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2666,7 +2919,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2674,7 +2927,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -2682,7 +2935,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2690,7 +2943,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -2698,7 +2951,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -2706,7 +2959,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -2714,7 +2967,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -2722,7 +2975,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -2730,7 +2983,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -2738,7 +2991,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -2746,7 +2999,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -2754,7 +3007,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -2762,7 +3015,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -2773,7 +3026,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
@@ -2784,7 +3037,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
@@ -2795,7 +3048,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,7 +3059,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
@@ -2817,7 +3070,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>34</v>
       </c>
@@ -2828,7 +3081,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
@@ -2839,7 +3092,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
@@ -2850,7 +3103,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
@@ -2861,7 +3114,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
@@ -2872,7 +3125,7 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -2880,7 +3133,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -2888,7 +3141,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -2896,7 +3149,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -2904,7 +3157,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -2912,7 +3165,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -2920,7 +3173,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>48</v>
       </c>
@@ -2931,7 +3184,7 @@
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>50</v>
       </c>
@@ -2942,7 +3195,7 @@
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>51</v>
       </c>
@@ -2953,7 +3206,7 @@
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>52</v>
       </c>
@@ -2964,7 +3217,7 @@
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>53</v>
       </c>
@@ -2975,7 +3228,7 @@
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>54</v>
       </c>
@@ -2986,7 +3239,7 @@
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>56</v>
       </c>
@@ -2997,7 +3250,7 @@
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>57</v>
       </c>
@@ -3008,7 +3261,7 @@
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>58</v>
       </c>
@@ -3019,7 +3272,7 @@
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>59</v>
       </c>
@@ -3030,7 +3283,7 @@
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>60</v>
       </c>
@@ -3041,7 +3294,7 @@
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>62</v>
       </c>
@@ -3052,7 +3305,7 @@
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>63</v>
       </c>
@@ -3060,7 +3313,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>64</v>
       </c>
@@ -3068,7 +3321,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>66</v>
       </c>
@@ -3076,7 +3329,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>68</v>
       </c>
@@ -3084,7 +3337,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>70</v>
       </c>
@@ -3092,7 +3345,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>72</v>
       </c>
@@ -3100,7 +3353,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>74</v>
       </c>
@@ -3108,7 +3361,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>76</v>
       </c>
@@ -3116,7 +3369,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>78</v>
       </c>
@@ -3124,7 +3377,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>80</v>
       </c>
@@ -3132,7 +3385,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>82</v>
       </c>
@@ -3140,7 +3393,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>84</v>
       </c>
@@ -3148,7 +3401,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>86</v>
       </c>
@@ -3156,7 +3409,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>88</v>
       </c>
@@ -3164,7 +3417,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>90</v>
       </c>
@@ -3172,7 +3425,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>92</v>
       </c>
@@ -3180,7 +3433,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>94</v>
       </c>
@@ -3188,7 +3441,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>96</v>
       </c>
@@ -3196,7 +3449,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>98</v>
       </c>
@@ -3204,7 +3457,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>100</v>
       </c>
@@ -3212,7 +3465,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>102</v>
       </c>
@@ -3220,7 +3473,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>104</v>
       </c>
@@ -3228,7 +3481,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>106</v>
       </c>
@@ -3236,7 +3489,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>108</v>
       </c>
@@ -3244,7 +3497,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>110</v>
       </c>
@@ -3252,7 +3505,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>112</v>
       </c>
@@ -3260,7 +3513,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>114</v>
       </c>
@@ -3268,7 +3521,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>116</v>
       </c>
@@ -3276,7 +3529,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>118</v>
       </c>
@@ -3284,7 +3537,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>120</v>
       </c>
@@ -3292,7 +3545,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>122</v>
       </c>
@@ -3300,7 +3553,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>124</v>
       </c>
@@ -3308,7 +3561,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>126</v>
       </c>
@@ -3316,7 +3569,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>128</v>
       </c>
@@ -3324,7 +3577,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>130</v>
       </c>
@@ -3332,7 +3585,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>132</v>
       </c>
@@ -3340,7 +3593,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>134</v>
       </c>
@@ -3348,7 +3601,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>136</v>
       </c>
@@ -3356,7 +3609,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>138</v>
       </c>
@@ -3364,7 +3617,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>139</v>
       </c>
@@ -3372,1011 +3625,1011 @@
         <v>140</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A86" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="9" t="s">
+        <v>716</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="9" t="s">
+        <v>720</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>699</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>700</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="9" t="s">
+        <v>723</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>702</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="9" t="s">
+        <v>724</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>701</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="9" t="s">
+        <v>725</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>696</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="9" t="s">
+        <v>727</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>697</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="9" t="s">
+        <v>717</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>694</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>695</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="10" t="s">
+        <v>691</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="10" t="s">
+        <v>703</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>699</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="10" t="s">
+        <v>704</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="10" t="s">
+        <v>705</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>700</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="10" t="s">
+        <v>706</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>702</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="10" t="s">
+        <v>707</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>701</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="10" t="s">
+        <v>708</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>696</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="10" t="s">
+        <v>710</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>697</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="10" t="s">
+        <v>692</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="10" t="s">
+        <v>693</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>687</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="10" t="s">
+        <v>711</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>694</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="10" t="s">
+        <v>712</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>695</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>698</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>141</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B112" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A87" t="s">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>143</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B113" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A88" t="s">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>144</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B114" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A89" t="s">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>145</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B115" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A90" t="s">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>147</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B116" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A91" t="s">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>148</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B117" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A92" t="s">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>150</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B118" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A93" s="1" t="s">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B119" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A94" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A95" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A96" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A97" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A98" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A99" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A100" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A101" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A102" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A103" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A104" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A105" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A106" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A107" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A108" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A109" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A110" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A111" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A112" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A113" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A114" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A115" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A116" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A117" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A118" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A119" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>195</v>
+        <v>154</v>
       </c>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>196</v>
+        <v>155</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>197</v>
+        <v>156</v>
       </c>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>199</v>
+        <v>158</v>
       </c>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>200</v>
+        <v>159</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>201</v>
+        <v>160</v>
       </c>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>202</v>
+        <v>161</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>203</v>
+        <v>156</v>
       </c>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>204</v>
+        <v>162</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>205</v>
+        <v>158</v>
       </c>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>206</v>
+        <v>163</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>207</v>
+        <v>164</v>
       </c>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>208</v>
+        <v>165</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>209</v>
+        <v>156</v>
       </c>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>210</v>
+        <v>166</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>211</v>
+        <v>158</v>
       </c>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>212</v>
+        <v>167</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>214</v>
+        <v>169</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>215</v>
+        <v>156</v>
       </c>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>216</v>
+        <v>170</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>205</v>
+        <v>158</v>
       </c>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>217</v>
+        <v>171</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>218</v>
+        <v>172</v>
       </c>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>219</v>
+        <v>173</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>220</v>
+        <v>174</v>
       </c>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>221</v>
+        <v>175</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>222</v>
+        <v>156</v>
       </c>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>223</v>
+        <v>176</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>224</v>
+        <v>158</v>
       </c>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>225</v>
+        <v>177</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>228</v>
+        <v>180</v>
       </c>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>229</v>
+        <v>181</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>230</v>
+        <v>156</v>
       </c>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>232</v>
+        <v>184</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>233</v>
+        <v>156</v>
       </c>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>234</v>
+        <v>185</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>222</v>
+        <v>158</v>
       </c>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>235</v>
+        <v>186</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>236</v>
+        <v>187</v>
       </c>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>237</v>
+        <v>188</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>238</v>
+        <v>189</v>
       </c>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>239</v>
+        <v>190</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>241</v>
+        <v>192</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>242</v>
+        <v>193</v>
       </c>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>243</v>
+        <v>194</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>244</v>
+        <v>195</v>
       </c>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>245</v>
+        <v>196</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>247</v>
+        <v>199</v>
       </c>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>248</v>
+        <v>200</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>249</v>
+        <v>201</v>
       </c>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>250</v>
+        <v>202</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>251</v>
+        <v>204</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>252</v>
+        <v>205</v>
       </c>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>253</v>
+        <v>206</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>254</v>
+        <v>207</v>
       </c>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>255</v>
+        <v>208</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>258</v>
+        <v>212</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>259</v>
+        <v>213</v>
       </c>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>260</v>
+        <v>214</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>261</v>
+        <v>216</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>262</v>
+        <v>205</v>
       </c>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>265</v>
+        <v>219</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>266</v>
+        <v>220</v>
       </c>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>269</v>
+        <v>223</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>270</v>
+        <v>224</v>
       </c>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>271</v>
+        <v>225</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>272</v>
+        <v>227</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>273</v>
+        <v>228</v>
       </c>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>274</v>
+        <v>229</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>275</v>
+        <v>231</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>276</v>
+        <v>205</v>
       </c>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>277</v>
+        <v>232</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>278</v>
+        <v>233</v>
       </c>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>279</v>
+        <v>234</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>280</v>
+        <v>222</v>
       </c>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>281</v>
+        <v>235</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>282</v>
+        <v>236</v>
       </c>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>283</v>
+        <v>237</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>284</v>
+        <v>238</v>
       </c>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>285</v>
+        <v>239</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>287</v>
+        <v>241</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>288</v>
+        <v>242</v>
       </c>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>289</v>
+        <v>243</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>290</v>
+        <v>244</v>
       </c>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>291</v>
+        <v>245</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>292</v>
+        <v>205</v>
       </c>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>293</v>
+        <v>246</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>294</v>
+        <v>248</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>295</v>
+        <v>249</v>
       </c>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>296</v>
+        <v>250</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>297</v>
+        <v>251</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>298</v>
+        <v>252</v>
       </c>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>299</v>
+        <v>253</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>300</v>
+        <v>254</v>
       </c>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>301</v>
+        <v>255</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>205</v>
@@ -4385,31 +4638,31 @@
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>302</v>
+        <v>256</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>303</v>
+        <v>257</v>
       </c>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>304</v>
+        <v>258</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>305</v>
+        <v>259</v>
       </c>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>306</v>
+        <v>260</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>222</v>
@@ -4418,20 +4671,306 @@
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>307</v>
+        <v>261</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>308</v>
+        <v>262</v>
       </c>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
     </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+      <c r="E184" s="1"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1"/>
+      <c r="E185" s="1"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C186" s="1"/>
+      <c r="D186" s="1"/>
+      <c r="E186" s="1"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1"/>
+      <c r="E187" s="1"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C188" s="1"/>
+      <c r="D188" s="1"/>
+      <c r="E188" s="1"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C189" s="1"/>
+      <c r="D189" s="1"/>
+      <c r="E189" s="1"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C190" s="1"/>
+      <c r="D190" s="1"/>
+      <c r="E190" s="1"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C191" s="1"/>
+      <c r="D191" s="1"/>
+      <c r="E191" s="1"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C192" s="1"/>
+      <c r="D192" s="1"/>
+      <c r="E192" s="1"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C193" s="1"/>
+      <c r="D193" s="1"/>
+      <c r="E193" s="1"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C194" s="1"/>
+      <c r="D194" s="1"/>
+      <c r="E194" s="1"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C195" s="1"/>
+      <c r="D195" s="1"/>
+      <c r="E195" s="1"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C196" s="1"/>
+      <c r="D196" s="1"/>
+      <c r="E196" s="1"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C197" s="1"/>
+      <c r="D197" s="1"/>
+      <c r="E197" s="1"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C198" s="1"/>
+      <c r="D198" s="1"/>
+      <c r="E198" s="1"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C199" s="1"/>
+      <c r="D199" s="1"/>
+      <c r="E199" s="1"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C200" s="1"/>
+      <c r="D200" s="1"/>
+      <c r="E200" s="1"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C201" s="1"/>
+      <c r="D201" s="1"/>
+      <c r="E201" s="1"/>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C202" s="1"/>
+      <c r="D202" s="1"/>
+      <c r="E202" s="1"/>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C203" s="1"/>
+      <c r="D203" s="1"/>
+      <c r="E203" s="1"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C204" s="1"/>
+      <c r="D204" s="1"/>
+      <c r="E204" s="1"/>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C205" s="1"/>
+      <c r="D205" s="1"/>
+      <c r="E205" s="1"/>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C206" s="1"/>
+      <c r="D206" s="1"/>
+      <c r="E206" s="1"/>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C207" s="1"/>
+      <c r="D207" s="1"/>
+      <c r="E207" s="1"/>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C208" s="1"/>
+      <c r="D208" s="1"/>
+      <c r="E208" s="1"/>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C209" s="1"/>
+      <c r="D209" s="1"/>
+      <c r="E209" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
@@ -4443,956 +4982,1005 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.2109375" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="82.2109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="123.640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="6" max="1025" width="10.5" customWidth="1"/>
+    <col min="1" max="1" width="16.875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="82.25" style="13" customWidth="1"/>
+    <col min="4" max="4" width="84" style="6" customWidth="1"/>
+    <col min="5" max="5" width="25" style="13" customWidth="1"/>
+    <col min="6" max="1025" width="10.5" style="13" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="E1" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+      <c r="E1" s="13" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="6">
         <v>8.1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="E2" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+      <c r="E2" s="13" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="6">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="E3" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+      <c r="E3" s="13" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="6">
         <v>8.3000000000000007</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="13" t="s">
         <v>318</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="E4" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+      <c r="E4" s="13" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="6">
         <v>8.4</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="E5" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+      <c r="E5" s="13" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="6">
         <v>8.5</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="E6" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+      <c r="E6" s="13" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="6">
         <v>8.6</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="E7" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+      <c r="E7" s="13" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="6">
         <v>8.6999999999999993</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="E8" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+      <c r="E8" s="13" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="6">
         <v>8.8000000000000007</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="E9" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+      <c r="E9" s="13" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="6">
         <v>8.9</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="E10" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+      <c r="E10" s="13" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="E11" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
+      <c r="E11" s="13" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="13" t="s">
+        <v>745</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="13" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="E12" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
+      <c r="C13" s="13" t="s">
+        <v>746</v>
+      </c>
+      <c r="D13" s="6">
+        <v>76.5</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C14" s="13" t="s">
+        <v>744</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="D13" s="4">
-        <v>76.5</v>
-      </c>
-      <c r="E13" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+      <c r="E14" s="13" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C15" s="13" t="s">
+        <v>743</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E15" s="13" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="E14" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+      <c r="C16" s="12" t="s">
+        <v>748</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>728</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B17" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C17" s="12" t="s">
+        <v>761</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="C18" s="12" t="s">
+        <v>747</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>730</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="E15" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+      <c r="C19" s="12" t="s">
+        <v>760</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>731</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B20" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C20" s="12" t="s">
+        <v>749</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="E16" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
+      <c r="C21" s="12" t="s">
+        <v>742</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>733</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B22" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C22" s="12" t="s">
+        <v>752</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>734</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="E17" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
+      <c r="C23" s="12" t="s">
+        <v>751</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>735</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B24" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C24" s="12" t="s">
+        <v>753</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>736</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="C25" s="13" t="s">
+        <v>762</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="E18" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
+      <c r="E25" s="13" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B26" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C26" s="13" t="s">
+        <v>763</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="E19" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
+      <c r="E26" s="13" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B27" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C27" s="13" t="s">
+        <v>764</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="E20" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
+      <c r="C28" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B29" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C29" s="13" t="s">
+        <v>766</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>728</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="E21" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="47.6" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
+      <c r="C30" s="13" t="s">
+        <v>767</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B31" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C31" s="13" t="s">
+        <v>768</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>730</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="E22" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
+      <c r="C32" s="13" t="s">
+        <v>769</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>731</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B33" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C33" s="13" t="s">
+        <v>770</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="E23" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
+      <c r="C34" s="13" t="s">
+        <v>772</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>733</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B35" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C35" s="13" t="s">
+        <v>771</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>734</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="E24" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
+      <c r="C36" s="13" t="s">
+        <v>774</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>735</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B37" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C37" s="13" t="s">
+        <v>773</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>736</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="C38" s="13" t="s">
         <v>364</v>
       </c>
-      <c r="E25" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
+      <c r="D38" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="C26" s="3" t="s">
+      <c r="B39" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="C39" s="13" t="s">
         <v>367</v>
       </c>
-      <c r="E26" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
+      <c r="D39" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="E27" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
+      <c r="B40" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="E28" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
+      <c r="B41" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="E29" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
+      <c r="B42" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="E30" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
+      <c r="B43" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="E31" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
+      <c r="B44" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="E32" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
+      <c r="B45" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="E33" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
+      <c r="B46" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="E34" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="47.6" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
+      <c r="B47" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="E35" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
+      <c r="B48" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="E36" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
+      <c r="B49" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="E37" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
+      <c r="B50" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="E38" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
+      <c r="B51" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="E39" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
+      <c r="B52" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="E40" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
+      <c r="B53" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="E41" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
+      <c r="B54" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="E42" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
+      <c r="B55" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="E43" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
+      <c r="B56" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B57" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="D57" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="E44" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
+      <c r="E57" s="13" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="E45" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
-        <v>313</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="E46" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
-        <v>313</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="E47" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
-        <v>313</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="E48" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
-        <v>313</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="E49" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
-        <v>313</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="C50" s="3" t="s">
+      <c r="B58" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="C58" s="13" t="s">
         <v>418</v>
       </c>
-      <c r="E50" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
-        <v>313</v>
-      </c>
-      <c r="B51" s="2" t="s">
+      <c r="D58" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="E51" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A52" t="s">
-        <v>313</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="E52" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A53" t="s">
-        <v>313</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="E53" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A54" t="s">
-        <v>313</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="E54" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
-        <v>313</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="E55" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A56" t="s">
-        <v>313</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="E56" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A57" t="s">
-        <v>313</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="E57" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A58" t="s">
-        <v>313</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="E58" t="s">
-        <v>685</v>
+      <c r="E58" s="13" t="s">
+        <v>665</v>
       </c>
     </row>
   </sheetData>
@@ -5409,77 +5997,77 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
-    <col min="2" max="2" width="81.35546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="81.375" style="3" customWidth="1"/>
     <col min="3" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>440</v>
+        <v>420</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>311</v>
       </c>
       <c r="C1" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>441</v>
+        <v>421</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="C2" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>443</v>
+        <v>423</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
       <c r="C3" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="C4" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="C5" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>449</v>
+        <v>429</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="C6" t="s">
-        <v>685</v>
+        <v>665</v>
       </c>
     </row>
   </sheetData>
@@ -5493,526 +6081,526 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
     <col min="2" max="2" width="100" customWidth="1"/>
-    <col min="3" max="3" width="22.78515625" customWidth="1"/>
+    <col min="3" max="3" width="22.75" customWidth="1"/>
     <col min="4" max="1026" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>440</v>
+        <v>420</v>
       </c>
       <c r="B1" t="s">
         <v>311</v>
       </c>
       <c r="D1" t="s">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="E1" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>452</v>
+        <v>432</v>
       </c>
       <c r="B2" t="s">
-        <v>453</v>
+        <v>433</v>
       </c>
       <c r="D2" t="s">
-        <v>454</v>
+        <v>434</v>
       </c>
       <c r="E2" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>455</v>
+        <v>435</v>
       </c>
       <c r="B3" t="s">
-        <v>456</v>
+        <v>436</v>
       </c>
       <c r="D3" t="s">
-        <v>454</v>
+        <v>434</v>
       </c>
       <c r="E3" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="B4" t="s">
-        <v>458</v>
+        <v>438</v>
       </c>
       <c r="D4" t="s">
-        <v>454</v>
+        <v>434</v>
       </c>
       <c r="E4" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>459</v>
+        <v>439</v>
       </c>
       <c r="B5" t="str">
         <f>"CCC Optional Tags 0xE3 and 0xE4 may be present or absent; if present are after tags listed in " &amp; A4 &amp; "and are in that order"</f>
         <v>CCC Optional Tags 0xE3 and 0xE4 may be present or absent; if present are after tags listed in 73-4.3and are in that order</v>
       </c>
       <c r="D5" t="s">
-        <v>454</v>
+        <v>434</v>
       </c>
       <c r="E5" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>460</v>
+        <v>440</v>
       </c>
       <c r="B6" t="str">
         <f>"CCC Tag 0xFE present and after any tags from " &amp; A4 &amp; " and " &amp; A5</f>
         <v>CCC Tag 0xFE present and after any tags from 73-4.3 and 73-4.4</v>
       </c>
       <c r="D6" t="s">
+        <v>434</v>
+      </c>
+      <c r="E6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="D7" t="s">
+        <v>443</v>
+      </c>
+      <c r="E7" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>444</v>
+      </c>
+      <c r="B8" t="s">
+        <v>445</v>
+      </c>
+      <c r="D8" t="s">
+        <v>434</v>
+      </c>
+      <c r="E8" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>446</v>
+      </c>
+      <c r="B9" t="s">
+        <v>447</v>
+      </c>
+      <c r="D9" t="s">
+        <v>434</v>
+      </c>
+      <c r="E9" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>448</v>
+      </c>
+      <c r="B10" t="s">
+        <v>449</v>
+      </c>
+      <c r="D10" t="s">
+        <v>434</v>
+      </c>
+      <c r="E10" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>450</v>
+      </c>
+      <c r="B11" t="s">
+        <v>451</v>
+      </c>
+      <c r="D11" t="s">
+        <v>434</v>
+      </c>
+      <c r="E11" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>452</v>
+      </c>
+      <c r="B12" t="s">
+        <v>453</v>
+      </c>
+      <c r="D12" t="s">
+        <v>434</v>
+      </c>
+      <c r="E12" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>454</v>
       </c>
-      <c r="E6" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="5" t="s">
+      <c r="B13" t="s">
+        <v>455</v>
+      </c>
+      <c r="D13" t="s">
+        <v>434</v>
+      </c>
+      <c r="E13" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>456</v>
+      </c>
+      <c r="B14" t="s">
+        <v>457</v>
+      </c>
+      <c r="D14" t="s">
+        <v>434</v>
+      </c>
+      <c r="E14" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>458</v>
+      </c>
+      <c r="B15" t="s">
+        <v>459</v>
+      </c>
+      <c r="D15" t="s">
+        <v>434</v>
+      </c>
+      <c r="E15" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>460</v>
+      </c>
+      <c r="B16" t="s">
         <v>461</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="D16" t="s">
+        <v>434</v>
+      </c>
+      <c r="E16" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>462</v>
       </c>
-      <c r="D7" t="s">
+      <c r="B17" t="s">
         <v>463</v>
       </c>
-      <c r="E7" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+      <c r="D17" t="s">
+        <v>434</v>
+      </c>
+      <c r="E17" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>464</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B18" t="s">
         <v>465</v>
       </c>
-      <c r="D8" t="s">
-        <v>454</v>
-      </c>
-      <c r="E8" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+      <c r="D18" t="s">
+        <v>434</v>
+      </c>
+      <c r="E18" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>466</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B19" t="s">
         <v>467</v>
       </c>
-      <c r="D9" t="s">
-        <v>454</v>
-      </c>
-      <c r="E9" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+      <c r="D19" t="s">
+        <v>434</v>
+      </c>
+      <c r="E19" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>468</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B20" t="s">
         <v>469</v>
       </c>
-      <c r="D10" t="s">
-        <v>454</v>
-      </c>
-      <c r="E10" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+      <c r="D20" t="s">
+        <v>434</v>
+      </c>
+      <c r="E20" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>470</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B21" t="s">
         <v>471</v>
       </c>
-      <c r="D11" t="s">
-        <v>454</v>
-      </c>
-      <c r="E11" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
+      <c r="D21" t="s">
+        <v>434</v>
+      </c>
+      <c r="E21" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>472</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B22" t="s">
         <v>473</v>
       </c>
-      <c r="D12" t="s">
-        <v>454</v>
-      </c>
-      <c r="E12" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
+      <c r="D22" t="s">
+        <v>434</v>
+      </c>
+      <c r="E22" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>474</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B23" t="s">
         <v>475</v>
       </c>
-      <c r="D13" t="s">
-        <v>454</v>
-      </c>
-      <c r="E13" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+      <c r="D23" t="s">
+        <v>434</v>
+      </c>
+      <c r="E23" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>476</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B24" t="s">
         <v>477</v>
       </c>
-      <c r="D14" t="s">
-        <v>454</v>
-      </c>
-      <c r="E14" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+      <c r="D24" t="s">
+        <v>434</v>
+      </c>
+      <c r="E24" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>478</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B25" t="s">
         <v>479</v>
       </c>
-      <c r="D15" t="s">
-        <v>454</v>
-      </c>
-      <c r="E15" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+      <c r="D25" t="s">
+        <v>434</v>
+      </c>
+      <c r="E25" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>480</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B26" t="s">
         <v>481</v>
       </c>
-      <c r="D16" t="s">
-        <v>454</v>
-      </c>
-      <c r="E16" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
+      <c r="D26" t="s">
+        <v>434</v>
+      </c>
+      <c r="E26" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>482</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B27" t="s">
         <v>483</v>
       </c>
-      <c r="D17" t="s">
-        <v>454</v>
-      </c>
-      <c r="E17" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
+      <c r="D27" t="s">
+        <v>434</v>
+      </c>
+      <c r="E27" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>484</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B28" t="s">
         <v>485</v>
       </c>
-      <c r="D18" t="s">
-        <v>454</v>
-      </c>
-      <c r="E18" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
+      <c r="D28" t="s">
+        <v>434</v>
+      </c>
+      <c r="E28" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>486</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B29" t="s">
         <v>487</v>
       </c>
-      <c r="D19" t="s">
-        <v>454</v>
-      </c>
-      <c r="E19" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
+      <c r="D29" t="s">
+        <v>434</v>
+      </c>
+      <c r="E29" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>488</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B30" t="s">
         <v>489</v>
       </c>
-      <c r="D20" t="s">
-        <v>454</v>
-      </c>
-      <c r="E20" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
+      <c r="D30" t="s">
+        <v>434</v>
+      </c>
+      <c r="E30" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>490</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B31" t="s">
         <v>491</v>
       </c>
-      <c r="D21" t="s">
-        <v>454</v>
-      </c>
-      <c r="E21" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
+      <c r="D31" t="s">
+        <v>434</v>
+      </c>
+      <c r="E31" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>492</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B32" t="s">
         <v>493</v>
       </c>
-      <c r="D22" t="s">
-        <v>454</v>
-      </c>
-      <c r="E22" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
+      <c r="D32" t="s">
+        <v>434</v>
+      </c>
+      <c r="E32" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>494</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B33" t="s">
         <v>495</v>
       </c>
-      <c r="D23" t="s">
-        <v>454</v>
-      </c>
-      <c r="E23" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
+      <c r="D33" t="s">
+        <v>434</v>
+      </c>
+      <c r="E33" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>496</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B34" t="s">
         <v>497</v>
       </c>
-      <c r="D24" t="s">
-        <v>454</v>
-      </c>
-      <c r="E24" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
+      <c r="D34" t="s">
+        <v>434</v>
+      </c>
+      <c r="E34" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>498</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B35" t="s">
         <v>499</v>
       </c>
-      <c r="D25" t="s">
-        <v>454</v>
-      </c>
-      <c r="E25" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
+      <c r="E35" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>500</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B36" t="s">
         <v>501</v>
       </c>
-      <c r="D26" t="s">
-        <v>454</v>
-      </c>
-      <c r="E26" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
+      <c r="E36" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>502</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B37" t="s">
         <v>503</v>
       </c>
-      <c r="D27" t="s">
-        <v>454</v>
-      </c>
-      <c r="E27" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>504</v>
-      </c>
-      <c r="B28" t="s">
-        <v>505</v>
-      </c>
-      <c r="D28" t="s">
-        <v>454</v>
-      </c>
-      <c r="E28" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>506</v>
-      </c>
-      <c r="B29" t="s">
-        <v>507</v>
-      </c>
-      <c r="D29" t="s">
-        <v>454</v>
-      </c>
-      <c r="E29" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>508</v>
-      </c>
-      <c r="B30" t="s">
-        <v>509</v>
-      </c>
-      <c r="D30" t="s">
-        <v>454</v>
-      </c>
-      <c r="E30" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>510</v>
-      </c>
-      <c r="B31" t="s">
-        <v>511</v>
-      </c>
-      <c r="D31" t="s">
-        <v>454</v>
-      </c>
-      <c r="E31" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>512</v>
-      </c>
-      <c r="B32" t="s">
-        <v>513</v>
-      </c>
-      <c r="D32" t="s">
-        <v>454</v>
-      </c>
-      <c r="E32" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>514</v>
-      </c>
-      <c r="B33" t="s">
-        <v>515</v>
-      </c>
-      <c r="D33" t="s">
-        <v>454</v>
-      </c>
-      <c r="E33" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
-        <v>516</v>
-      </c>
-      <c r="B34" t="s">
-        <v>517</v>
-      </c>
-      <c r="D34" t="s">
-        <v>454</v>
-      </c>
-      <c r="E34" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
-        <v>518</v>
-      </c>
-      <c r="B35" t="s">
-        <v>519</v>
-      </c>
-      <c r="E35" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
-        <v>520</v>
-      </c>
-      <c r="B36" t="s">
-        <v>521</v>
-      </c>
-      <c r="E36" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
-        <v>522</v>
-      </c>
-      <c r="B37" t="s">
-        <v>523</v>
-      </c>
       <c r="E37" t="s">
-        <v>686</v>
+        <v>666</v>
       </c>
     </row>
   </sheetData>
@@ -6023,436 +6611,589 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="80.85546875" style="4" customWidth="1"/>
-    <col min="3" max="1025" width="10.5" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="80.875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="31.125" style="6" customWidth="1"/>
+    <col min="4" max="1026" width="10.5" style="6" customWidth="1"/>
+    <col min="1027" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="C1" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" s="2">
+      <c r="D1" s="6" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
         <v>76.099999999999994</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="C2" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
+      <c r="D14" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B15" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="C3" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
+      <c r="D15" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>527</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B16" s="6" t="s">
         <v>528</v>
       </c>
-      <c r="C4" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="31.75" x14ac:dyDescent="0.45">
-      <c r="A5" s="2" t="s">
+      <c r="D16" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B17" s="6" t="s">
         <v>530</v>
       </c>
-      <c r="C5" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="D17" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="C6" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="B18" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="C7" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="D18" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="C8" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="31.75" x14ac:dyDescent="0.45">
-      <c r="A9" s="2" t="s">
+      <c r="B19" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="D19" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="C9" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" s="2" t="s">
+      <c r="B20" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>683</v>
-      </c>
-      <c r="C10" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" s="2" t="s">
+      <c r="D20" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B21" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="C11" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" s="2" t="s">
+      <c r="D21" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>539</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B22" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="C12" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="31.75" x14ac:dyDescent="0.45">
-      <c r="A13" s="2" t="s">
+      <c r="D22" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B23" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="C13" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14" s="2" t="s">
+      <c r="D23" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B24" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="C14" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A15" s="2" t="s">
+      <c r="D24" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B25" s="6" t="s">
         <v>546</v>
       </c>
-      <c r="C15" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="31.75" x14ac:dyDescent="0.45">
-      <c r="A16" s="2" t="s">
+      <c r="D25" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B26" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="C16" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17" s="2" t="s">
+      <c r="D26" s="14" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B27" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="C17" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" s="2" t="s">
+      <c r="D27" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B28" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="C18" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A19" s="2" t="s">
+      <c r="D28" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
         <v>553</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B29" s="6" t="s">
         <v>554</v>
       </c>
-      <c r="C19" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A20" s="2" t="s">
+      <c r="D29" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
         <v>555</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B30" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="C20" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A21" s="2" t="s">
+      <c r="D30" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B31" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="C21" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A22" s="2" t="s">
+      <c r="D31" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
         <v>559</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B32" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="C22" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A23" s="2" t="s">
+      <c r="D32" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
         <v>561</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B33" s="6" t="s">
         <v>562</v>
       </c>
-      <c r="C23" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A24" s="2" t="s">
+      <c r="D33" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B34" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="C24" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A25" s="2" t="s">
+      <c r="D34" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B35" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="C25" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A26" s="2" t="s">
+      <c r="D35" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B36" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="C26" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A27" s="2" t="s">
+      <c r="D36" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B37" s="6" t="s">
         <v>570</v>
       </c>
-      <c r="C27" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A28" s="2" t="s">
+      <c r="D37" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B38" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="C28" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A29" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>574</v>
-      </c>
-      <c r="C29" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A30" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>576</v>
-      </c>
-      <c r="C30" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A31" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>578</v>
-      </c>
-      <c r="C31" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A32" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="C32" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A33" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>582</v>
-      </c>
-      <c r="C33" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A34" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="C34" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A35" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="C35" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A36" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>588</v>
-      </c>
-      <c r="C36" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A37" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>590</v>
-      </c>
-      <c r="C37" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A38" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>592</v>
-      </c>
-      <c r="C38" t="s">
-        <v>685</v>
-      </c>
+      <c r="D38" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>728</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>777</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>775</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="6" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>778</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>730</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>779</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+    </row>
+    <row r="42" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>731</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>780</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>785</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="6" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>754</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>776</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="6" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>733</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>781</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>750</v>
+      </c>
+      <c r="D44" s="8"/>
+    </row>
+    <row r="45" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>734</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>782</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+    </row>
+    <row r="46" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>735</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>783</v>
+      </c>
+      <c r="C46" s="8"/>
+      <c r="D46" s="15" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>736</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>755</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+    </row>
+    <row r="48" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>739</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>756</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>740</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>757</v>
+      </c>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>741</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>758</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>750</v>
+      </c>
+      <c r="D51" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -6464,290 +7205,290 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5" style="6" customWidth="1"/>
-    <col min="2" max="2" width="44.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="41.35546875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="29.0703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="44.25" style="6" customWidth="1"/>
+    <col min="3" max="3" width="41.375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="6" customWidth="1"/>
+    <col min="5" max="5" width="29.125" style="6" customWidth="1"/>
     <col min="6" max="1026" width="10.5" style="6" customWidth="1"/>
-    <col min="1027" max="16384" width="9.140625" style="6"/>
+    <col min="1027" max="16384" width="9.125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>440</v>
+        <v>420</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>311</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="47.6" x14ac:dyDescent="0.45">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>593</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="D12" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>594</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="6" t="s">
+      <c r="B13" s="6" t="s">
         <v>595</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="D13" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>596</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="6" t="s">
+      <c r="B14" s="7" t="s">
         <v>597</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>598</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="47.6" x14ac:dyDescent="0.45">
-      <c r="A5" s="6" t="s">
-        <v>599</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>600</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="47.6" x14ac:dyDescent="0.45">
-      <c r="A6" s="6" t="s">
-        <v>601</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>602</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="6" t="s">
-        <v>603</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>604</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" s="6" t="s">
-        <v>605</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>606</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
-      <c r="A9" s="6" t="s">
-        <v>607</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>608</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="47.6" x14ac:dyDescent="0.45">
-      <c r="A10" s="6" t="s">
-        <v>609</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>610</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="6" t="s">
-        <v>611</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>662</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="47.6" x14ac:dyDescent="0.45">
-      <c r="A12" s="6" t="s">
-        <v>612</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>613</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="47.6" x14ac:dyDescent="0.45">
-      <c r="A13" s="6" t="s">
-        <v>614</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>615</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
-      <c r="A14" s="7" t="s">
-        <v>616</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>617</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="6" t="s">
-        <v>685</v>
+        <v>665</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>619</v>
+        <v>599</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>621</v>
+        <v>601</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>622</v>
+        <v>602</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="47.6" x14ac:dyDescent="0.45">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>624</v>
+        <v>604</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="47.6" x14ac:dyDescent="0.45">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>625</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>700</v>
+        <v>605</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>680</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>697</v>
+        <v>677</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>685</v>
+        <v>665</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>626</v>
+        <v>606</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>628</v>
+        <v>608</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>630</v>
+        <v>610</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>631</v>
+        <v>611</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>632</v>
+        <v>612</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>634</v>
+        <v>614</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>635</v>
+        <v>615</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>636</v>
+        <v>616</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>637</v>
+        <v>617</v>
       </c>
     </row>
   </sheetData>
@@ -6764,55 +7505,55 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="75.640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="75.625" style="4" customWidth="1"/>
     <col min="3" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>440</v>
+        <v>420</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>311</v>
       </c>
       <c r="C1" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>638</v>
+        <v>618</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>639</v>
+        <v>619</v>
       </c>
       <c r="C2" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="31.75" x14ac:dyDescent="0.45">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>640</v>
+        <v>620</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>641</v>
+        <v>621</v>
       </c>
       <c r="C3" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="31.75" x14ac:dyDescent="0.45">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>642</v>
+        <v>622</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>643</v>
+        <v>623</v>
       </c>
       <c r="C4" t="s">
-        <v>685</v>
+        <v>665</v>
       </c>
     </row>
   </sheetData>
@@ -6825,303 +7566,303 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5" style="6" customWidth="1"/>
-    <col min="2" max="3" width="44.42578125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="44.42578125" style="6" customWidth="1"/>
+    <col min="2" max="3" width="44.375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="44.375" style="6" customWidth="1"/>
     <col min="6" max="1026" width="10.5" style="6" customWidth="1"/>
-    <col min="1027" max="16384" width="9.140625" style="6"/>
+    <col min="1027" max="16384" width="9.125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>440</v>
+        <v>420</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>311</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>632</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>670</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="33.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>644</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>685</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="D12" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="6" t="s">
+    <row r="13" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>646</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B13" s="6" t="s">
         <v>647</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="6" t="s">
+      <c r="C13" s="8" t="s">
+        <v>677</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>648</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B14" s="6" t="s">
         <v>649</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="6" t="s">
-        <v>650</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>651</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="6" t="s">
-        <v>652</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>653</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
-      <c r="A7" s="6" t="s">
-        <v>654</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>705</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>690</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>685</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
-      <c r="A8" s="6" t="s">
-        <v>655</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
-      <c r="A9" s="6" t="s">
-        <v>657</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>658</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
-      <c r="A10" s="6" t="s">
-        <v>659</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>660</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="6" t="s">
-        <v>661</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>662</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="6" t="s">
-        <v>663</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>664</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>685</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
-      <c r="A13" s="6" t="s">
-        <v>666</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>667</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>697</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>685</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
-      <c r="A14" s="6" t="s">
-        <v>668</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>669</v>
       </c>
       <c r="C14" s="8">
         <v>6</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>685</v>
+        <v>665</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>670</v>
+        <v>650</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>671</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
-      <c r="A16" s="6" t="s">
-        <v>672</v>
-      </c>
-      <c r="B16" s="6" t="s">
+      <c r="D19" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>673</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
-      <c r="A17" s="6" t="s">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>674</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="D21" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>675</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
-      <c r="A18" s="6" t="s">
-        <v>676</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>677</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
-      <c r="A19" s="6" t="s">
-        <v>678</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>706</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>691</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>685</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20" s="6" t="s">
-        <v>679</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>680</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>685</v>
-      </c>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
-      <c r="A21" s="6" t="s">
+    </row>
+    <row r="22" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
         <v>681</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B22" s="8" t="s">
         <v>682</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>694</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>685</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
-      <c r="A22" s="8" t="s">
-        <v>701</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>702</v>
-      </c>
       <c r="C22" s="8" t="s">
-        <v>703</v>
+        <v>683</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>688</v>
+        <v>668</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>704</v>
+        <v>684</v>
       </c>
     </row>
   </sheetData>
@@ -7138,16 +7879,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
-    <col min="2" max="2" width="75.640625" customWidth="1"/>
+    <col min="2" max="2" width="75.625" customWidth="1"/>
     <col min="3" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>440</v>
+        <v>420</v>
       </c>
       <c r="B1" t="s">
         <v>311</v>

--- a/docs/85b_test_definitions_PIV_Production.xlsx
+++ b/docs/85b_test_definitions_PIV_Production.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A00063-9522-4DAB-949A-BDE62FDCDE2A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56A504C-51FF-491B-BFCC-891CA29E9606}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5700" yWindow="780" windowWidth="23040" windowHeight="12120" tabRatio="634" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5700" yWindow="780" windowWidth="23040" windowHeight="12120" tabRatio="634" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PIV I Reference Tests" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="785">
   <si>
     <t>Test Case</t>
   </si>
@@ -2358,12 +2358,6 @@
     <t>Validate that facial image CBEFF FASC-N field contains the same 25 bytes as the FASC-N component of the CHUID identifier</t>
   </si>
   <si>
-    <t>Cardholder Fingerprints==513,Cardholder Facial Image==1281</t>
-  </si>
-  <si>
-    <t>Cardholder Fingerprints==224,Cardholder Facial Image==32</t>
-  </si>
-  <si>
     <t>Verify that the CBEFF Biometric Data Block (BDB) Format Type is set to the appropriate value</t>
   </si>
   <si>
@@ -2385,10 +2379,13 @@
     <t>Verify that FASC-N field in the CBEFF FASC-N contains the same 25 bytes as the FASC-N component of the CHUID identifier</t>
   </si>
   <si>
-    <t>You might want to change this parameter format</t>
-  </si>
-  <si>
-    <t>Cardholder Fingerprints==8,Cardholder Facial Image==2</t>
+    <t>CARDHOLDER_FINGERPRINTS_OID:513,CARDHOLDER_FACIAL_IMAGE_OID:1281</t>
+  </si>
+  <si>
+    <t>CARDHOLDER_FINGERPRINTS_OID:8,CARDHOLDER_FACIAL_IMAGE_OID:2</t>
+  </si>
+  <si>
+    <t>CARDHOLDER_FINGERPRINTS_OID,224:CARDHOLDER_FACIAL_IMAGE_OID:32</t>
   </si>
 </sst>
 </file>
@@ -2449,7 +2446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2470,11 +2467,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2868,7 +2860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E209"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G109" sqref="G109"/>
     </sheetView>
   </sheetViews>
@@ -3629,7 +3621,7 @@
       <c r="A86" s="9" t="s">
         <v>716</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B86" s="9" t="s">
         <v>689</v>
       </c>
       <c r="C86" s="8" t="s">
@@ -3640,10 +3632,10 @@
       <c r="A87" s="9" t="s">
         <v>720</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="B87" s="9" t="s">
         <v>699</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C87" s="9" t="s">
         <v>575</v>
       </c>
     </row>
@@ -3651,7 +3643,7 @@
       <c r="A88" s="9" t="s">
         <v>721</v>
       </c>
-      <c r="B88" s="10" t="s">
+      <c r="B88" s="9" t="s">
         <v>690</v>
       </c>
       <c r="C88" s="8" t="s">
@@ -3662,7 +3654,7 @@
       <c r="A89" s="9" t="s">
         <v>722</v>
       </c>
-      <c r="B89" s="10" t="s">
+      <c r="B89" s="9" t="s">
         <v>700</v>
       </c>
       <c r="C89" s="8" t="s">
@@ -3673,7 +3665,7 @@
       <c r="A90" s="9" t="s">
         <v>723</v>
       </c>
-      <c r="B90" s="10" t="s">
+      <c r="B90" s="9" t="s">
         <v>702</v>
       </c>
       <c r="C90" s="8" t="s">
@@ -3684,7 +3676,7 @@
       <c r="A91" s="9" t="s">
         <v>724</v>
       </c>
-      <c r="B91" s="10" t="s">
+      <c r="B91" s="9" t="s">
         <v>701</v>
       </c>
       <c r="C91" s="8" t="s">
@@ -3695,7 +3687,7 @@
       <c r="A92" s="9" t="s">
         <v>725</v>
       </c>
-      <c r="B92" s="10" t="s">
+      <c r="B92" s="9" t="s">
         <v>696</v>
       </c>
       <c r="C92" s="8" t="s">
@@ -3706,10 +3698,10 @@
       <c r="A93" s="9" t="s">
         <v>726</v>
       </c>
-      <c r="B93" s="10" t="s">
+      <c r="B93" s="9" t="s">
         <v>714</v>
       </c>
-      <c r="C93" s="10" t="s">
+      <c r="C93" s="9" t="s">
         <v>715</v>
       </c>
     </row>
@@ -3717,10 +3709,10 @@
       <c r="A94" s="9" t="s">
         <v>727</v>
       </c>
-      <c r="B94" s="10" t="s">
+      <c r="B94" s="9" t="s">
         <v>697</v>
       </c>
-      <c r="C94" s="10" t="s">
+      <c r="C94" s="9" t="s">
         <v>592</v>
       </c>
     </row>
@@ -3728,10 +3720,10 @@
       <c r="A95" s="9" t="s">
         <v>717</v>
       </c>
-      <c r="B95" s="10" t="s">
+      <c r="B95" s="9" t="s">
         <v>688</v>
       </c>
-      <c r="C95" s="10" t="s">
+      <c r="C95" s="9" t="s">
         <v>594</v>
       </c>
     </row>
@@ -3739,10 +3731,10 @@
       <c r="A96" s="9" t="s">
         <v>718</v>
       </c>
-      <c r="B96" s="10" t="s">
+      <c r="B96" s="9" t="s">
         <v>694</v>
       </c>
-      <c r="C96" s="10" t="s">
+      <c r="C96" s="9" t="s">
         <v>596</v>
       </c>
     </row>
@@ -3750,164 +3742,164 @@
       <c r="A97" s="9" t="s">
         <v>719</v>
       </c>
-      <c r="B97" s="10" t="s">
+      <c r="B97" s="9" t="s">
         <v>695</v>
       </c>
-      <c r="C97" s="10" t="s">
+      <c r="C97" s="9" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="98" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="10" t="s">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="9" t="s">
         <v>691</v>
       </c>
-      <c r="B98" s="10" t="s">
+      <c r="B98" s="9" t="s">
         <v>689</v>
       </c>
       <c r="C98" s="8" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="99" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="10" t="s">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="9" t="s">
         <v>703</v>
       </c>
-      <c r="B99" s="10" t="s">
+      <c r="B99" s="9" t="s">
         <v>699</v>
       </c>
-      <c r="C99" s="10" t="s">
+      <c r="C99" s="9" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="100" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="10" t="s">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="9" t="s">
         <v>704</v>
       </c>
-      <c r="B100" s="10" t="s">
+      <c r="B100" s="9" t="s">
         <v>690</v>
       </c>
       <c r="C100" s="8" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="101" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="10" t="s">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="9" t="s">
         <v>705</v>
       </c>
-      <c r="B101" s="10" t="s">
+      <c r="B101" s="9" t="s">
         <v>700</v>
       </c>
       <c r="C101" s="8" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="102" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="10" t="s">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="9" t="s">
         <v>706</v>
       </c>
-      <c r="B102" s="10" t="s">
+      <c r="B102" s="9" t="s">
         <v>702</v>
       </c>
       <c r="C102" s="8" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="103" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="10" t="s">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="9" t="s">
         <v>707</v>
       </c>
-      <c r="B103" s="10" t="s">
+      <c r="B103" s="9" t="s">
         <v>701</v>
       </c>
       <c r="C103" s="8" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="104" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="10" t="s">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="9" t="s">
         <v>708</v>
       </c>
-      <c r="B104" s="10" t="s">
+      <c r="B104" s="9" t="s">
         <v>696</v>
       </c>
       <c r="C104" s="8" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="105" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="10" t="s">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="9" t="s">
         <v>709</v>
       </c>
-      <c r="B105" s="10" t="s">
+      <c r="B105" s="9" t="s">
         <v>714</v>
       </c>
-      <c r="C105" s="10" t="s">
+      <c r="C105" s="9" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="106" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="10" t="s">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="9" t="s">
         <v>710</v>
       </c>
-      <c r="B106" s="10" t="s">
+      <c r="B106" s="9" t="s">
         <v>697</v>
       </c>
-      <c r="C106" s="10" t="s">
+      <c r="C106" s="9" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="107" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="10" t="s">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="9" t="s">
         <v>692</v>
       </c>
-      <c r="B107" s="10" t="s">
+      <c r="B107" s="9" t="s">
         <v>688</v>
       </c>
-      <c r="C107" s="10" t="s">
+      <c r="C107" s="9" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="108" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="10" t="s">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="9" t="s">
         <v>693</v>
       </c>
-      <c r="B108" s="10" t="s">
+      <c r="B108" s="9" t="s">
         <v>687</v>
       </c>
-      <c r="C108" s="10" t="s">
+      <c r="C108" s="9" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="109" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="10" t="s">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="9" t="s">
         <v>711</v>
       </c>
-      <c r="B109" s="10" t="s">
+      <c r="B109" s="9" t="s">
         <v>694</v>
       </c>
-      <c r="C109" s="10" t="s">
+      <c r="C109" s="9" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="110" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="10" t="s">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="9" t="s">
         <v>712</v>
       </c>
-      <c r="B110" s="10" t="s">
+      <c r="B110" s="9" t="s">
         <v>695</v>
       </c>
-      <c r="C110" s="10" t="s">
+      <c r="C110" s="9" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="111" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="10" t="s">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="9" t="s">
         <v>713</v>
       </c>
-      <c r="B111" s="10" t="s">
+      <c r="B111" s="9" t="s">
         <v>698</v>
       </c>
-      <c r="C111" s="10" t="s">
+      <c r="C111" s="9" t="s">
         <v>605</v>
       </c>
     </row>
@@ -4982,1004 +4974,1004 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.875" style="13" customWidth="1"/>
+    <col min="1" max="1" width="16.875" style="10" customWidth="1"/>
     <col min="2" max="2" width="10.875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="82.25" style="13" customWidth="1"/>
+    <col min="3" max="3" width="82.25" style="10" customWidth="1"/>
     <col min="4" max="4" width="84" style="6" customWidth="1"/>
-    <col min="5" max="5" width="25" style="13" customWidth="1"/>
-    <col min="6" max="1025" width="10.5" style="13" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="13"/>
+    <col min="5" max="5" width="25" style="10" customWidth="1"/>
+    <col min="6" max="1025" width="10.5" style="10" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="10" t="s">
         <v>309</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="10" t="s">
         <v>311</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="10" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="10" t="s">
         <v>313</v>
       </c>
       <c r="B2" s="6">
         <v>8.1</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="10" t="s">
         <v>314</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="10" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="10" t="s">
         <v>313</v>
       </c>
       <c r="B3" s="6">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="10" t="s">
         <v>316</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="10" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="10" t="s">
         <v>313</v>
       </c>
       <c r="B4" s="6">
         <v>8.3000000000000007</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="10" t="s">
         <v>318</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="10" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="10" t="s">
         <v>313</v>
       </c>
       <c r="B5" s="6">
         <v>8.4</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="10" t="s">
         <v>320</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="10" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="10" t="s">
         <v>313</v>
       </c>
       <c r="B6" s="6">
         <v>8.5</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="10" t="s">
         <v>322</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="10" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="10" t="s">
         <v>313</v>
       </c>
       <c r="B7" s="6">
         <v>8.6</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="10" t="s">
         <v>324</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="10" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="10" t="s">
         <v>313</v>
       </c>
       <c r="B8" s="6">
         <v>8.6999999999999993</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="10" t="s">
         <v>326</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="10" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="10" t="s">
         <v>313</v>
       </c>
       <c r="B9" s="6">
         <v>8.8000000000000007</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="10" t="s">
         <v>327</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="10" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="10" t="s">
         <v>313</v>
       </c>
       <c r="B10" s="6">
         <v>8.9</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="10" t="s">
         <v>328</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="10" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="10" t="s">
         <v>313</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="10" t="s">
         <v>330</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="10" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="10" t="s">
         <v>313</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="10" t="s">
         <v>745</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="10" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="10" t="s">
         <v>313</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="10" t="s">
         <v>746</v>
       </c>
       <c r="D13" s="6">
         <v>76.5</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="10" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="10" t="s">
         <v>313</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="10" t="s">
         <v>744</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="10" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="10" t="s">
         <v>313</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="10" t="s">
         <v>743</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="10" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="10" t="s">
         <v>313</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="6" t="s">
         <v>748</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>728</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="10" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="10" t="s">
         <v>313</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="6" t="s">
         <v>761</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>729</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="10" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="10" t="s">
         <v>313</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="6" t="s">
         <v>747</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>730</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="10" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="10" t="s">
         <v>313</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="6" t="s">
         <v>760</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>731</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="10" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="10" t="s">
         <v>313</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="6" t="s">
         <v>749</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>732</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="10" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="10" t="s">
         <v>313</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="6" t="s">
         <v>742</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>733</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="10" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="10" t="s">
         <v>313</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="6" t="s">
         <v>752</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>734</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="10" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="10" t="s">
         <v>313</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="6" t="s">
         <v>751</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>735</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="10" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="10" t="s">
         <v>313</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="6" t="s">
         <v>753</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>736</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="10" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="10" t="s">
         <v>313</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="10" t="s">
         <v>762</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="10" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="10" t="s">
         <v>313</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="10" t="s">
         <v>763</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="10" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="10" t="s">
         <v>313</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="10" t="s">
         <v>764</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="10" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="10" t="s">
         <v>313</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="10" t="s">
         <v>765</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="10" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="10" t="s">
         <v>313</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="10" t="s">
         <v>766</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>728</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="10" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="10" t="s">
         <v>313</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="10" t="s">
         <v>767</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>729</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="10" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="10" t="s">
         <v>313</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="10" t="s">
         <v>768</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>730</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="10" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="10" t="s">
         <v>313</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="10" t="s">
         <v>769</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>731</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="10" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="10" t="s">
         <v>313</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="10" t="s">
         <v>770</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>732</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="10" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="10" t="s">
         <v>313</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="10" t="s">
         <v>772</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>733</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="E34" s="10" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="10" t="s">
         <v>313</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="10" t="s">
         <v>771</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>734</v>
       </c>
-      <c r="E35" s="13" t="s">
+      <c r="E35" s="10" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="10" t="s">
         <v>313</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="10" t="s">
         <v>774</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>735</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="E36" s="10" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="10" t="s">
         <v>313</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="10" t="s">
         <v>773</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>736</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="E37" s="10" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="10" t="s">
         <v>313</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="10" t="s">
         <v>364</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="E38" s="13" t="s">
+      <c r="E38" s="10" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="10" t="s">
         <v>313</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="10" t="s">
         <v>367</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="E39" s="13" t="s">
+      <c r="E39" s="10" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="10" t="s">
         <v>313</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="10" t="s">
         <v>370</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="E40" s="13" t="s">
+      <c r="E40" s="10" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="10" t="s">
         <v>313</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="10" t="s">
         <v>373</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="E41" s="13" t="s">
+      <c r="E41" s="10" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="10" t="s">
         <v>313</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="10" t="s">
         <v>376</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="E42" s="13" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
+      <c r="E42" s="10" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
         <v>313</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="10" t="s">
         <v>379</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="E43" s="13" t="s">
+      <c r="E43" s="10" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="10" t="s">
         <v>313</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="10" t="s">
         <v>382</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="E44" s="13" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
+      <c r="E44" s="10" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
         <v>313</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="10" t="s">
         <v>385</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="E45" s="13" t="s">
+      <c r="E45" s="10" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="10" t="s">
         <v>313</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="10" t="s">
         <v>388</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="E46" s="13" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
+      <c r="E46" s="10" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
         <v>313</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="10" t="s">
         <v>390</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="E47" s="13" t="s">
+      <c r="E47" s="10" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="10" t="s">
         <v>313</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="10" t="s">
         <v>392</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="E48" s="13" t="s">
+      <c r="E48" s="10" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="10" t="s">
         <v>313</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="10" t="s">
         <v>394</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="E49" s="13" t="s">
+      <c r="E49" s="10" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="10" t="s">
         <v>313</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="10" t="s">
         <v>397</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="E50" s="13" t="s">
+      <c r="E50" s="10" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="10" t="s">
         <v>313</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C51" s="10" t="s">
         <v>400</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="E51" s="13" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="13" t="s">
+      <c r="E51" s="10" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
         <v>313</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="10" t="s">
         <v>403</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="E52" s="13" t="s">
+      <c r="E52" s="10" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="13" t="s">
+      <c r="A53" s="10" t="s">
         <v>313</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C53" s="10" t="s">
         <v>406</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="E53" s="13" t="s">
+      <c r="E53" s="10" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="13" t="s">
+      <c r="A54" s="10" t="s">
         <v>313</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C54" s="10" t="s">
         <v>408</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="E54" s="13" t="s">
+      <c r="E54" s="10" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="13" t="s">
+      <c r="A55" s="10" t="s">
         <v>313</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C55" s="10" t="s">
         <v>411</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="E55" s="13" t="s">
+      <c r="E55" s="10" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="13" t="s">
+      <c r="A56" s="10" t="s">
         <v>313</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C56" s="10" t="s">
         <v>413</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="E56" s="13" t="s">
+      <c r="E56" s="10" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="13" t="s">
+      <c r="A57" s="10" t="s">
         <v>313</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C57" s="10" t="s">
         <v>416</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="E57" s="13" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="13" t="s">
+      <c r="E57" s="10" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="10" t="s">
         <v>313</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C58" s="10" t="s">
         <v>418</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="E58" s="13" t="s">
+      <c r="E58" s="10" t="s">
         <v>665</v>
       </c>
     </row>
@@ -6611,17 +6603,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="80.875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="31.125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="42" style="6" customWidth="1"/>
+    <col min="3" max="3" width="69.125" style="6" customWidth="1"/>
     <col min="4" max="1026" width="10.5" style="6" customWidth="1"/>
     <col min="1027" max="16384" width="9" style="6"/>
   </cols>
@@ -6908,7 +6900,7 @@
       <c r="B26" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="11" t="s">
         <v>667</v>
       </c>
     </row>
@@ -6978,7 +6970,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>561</v>
       </c>
@@ -6989,7 +6981,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>563</v>
       </c>
@@ -7000,7 +6992,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>565</v>
       </c>
@@ -7011,7 +7003,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>567</v>
       </c>
@@ -7022,7 +7014,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>569</v>
       </c>
@@ -7033,7 +7025,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>571</v>
       </c>
@@ -7044,57 +7036,51 @@
         <v>665</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>728</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>775</v>
+        <v>782</v>
       </c>
       <c r="D39" s="8"/>
-      <c r="E39" s="6" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>729</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>730</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
     </row>
-    <row r="42" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>731</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="D42" s="8"/>
-      <c r="E42" s="6" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>732</v>
       </c>
@@ -7102,48 +7088,45 @@
         <v>754</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>776</v>
+        <v>784</v>
       </c>
       <c r="D43" s="8"/>
-      <c r="E43" s="6" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>733</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>750</v>
       </c>
       <c r="D44" s="8"/>
     </row>
-    <row r="45" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>734</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
     </row>
-    <row r="46" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>735</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C46" s="8"/>
-      <c r="D46" s="15" t="s">
+      <c r="D46" s="12" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>736</v>
       </c>
@@ -7153,7 +7136,7 @@
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
     </row>
-    <row r="48" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>738</v>
       </c>
@@ -7205,7 +7188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
